--- a/Metrics.xlsx
+++ b/Metrics.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>File Name</t>
   </si>
@@ -35,22 +35,25 @@
     <t>Last Modified</t>
   </si>
   <si>
-    <t>file1.txt</t>
-  </si>
-  <si>
-    <t>2022-03-01</t>
-  </si>
-  <si>
-    <t>2022-03-02</t>
-  </si>
-  <si>
-    <t>file2.txt</t>
-  </si>
-  <si>
-    <t>2022-03-03</t>
-  </si>
-  <si>
-    <t>2022-03-04</t>
+    <t>TextFiles/.DS_Store</t>
+  </si>
+  <si>
+    <t>2024-03-19T12:55:06Z</t>
+  </si>
+  <si>
+    <t>__MACOSX/TextFiles/._.DS_Store</t>
+  </si>
+  <si>
+    <t>2024-03-19T13:04:23Z</t>
+  </si>
+  <si>
+    <t>TextFiles/test</t>
+  </si>
+  <si>
+    <t>2024-03-19T13:04:15Z</t>
+  </si>
+  <si>
+    <t>__MACOSX/TextFiles/._test</t>
   </si>
   <si>
     <t>Total Files</t>
@@ -98,7 +101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -132,53 +135,99 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>100.0</v>
+        <v>6148.0</v>
       </c>
       <c r="C2" t="n">
-        <v>50.0</v>
+        <v>11.0</v>
       </c>
       <c r="D2" t="n">
-        <v>10.0</v>
+        <v>62.0</v>
       </c>
       <c r="E2" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="n">
-        <v>2.0</v>
+      <c r="B5" t="n">
+        <v>575.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4.0</v>
       </c>
     </row>
   </sheetData>
